--- a/biology/Médecine/Lymphome_folliculaire/Lymphome_folliculaire.xlsx
+++ b/biology/Médecine/Lymphome_folliculaire/Lymphome_folliculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lymphome folliculaire est le second lymphome le plus fréquent de l'adulte (et en augmentation régulière, surtout chez l'homme) ; avec ~ 6 pour 100 000 individus et ~ 4 000 nouveaux cas par an détectés en France.
 Il est incurable, et tardivement détecté car indolent et disséminé au diagnostic.
@@ -512,7 +524,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On sait maintenant qu'il apparaît initialement dans la moelle osseuse via une translocation chromosomique qui apparaît dans certaines cellules sanguines (dite t(14;18) parce que du chromosome 14 au chromosome 18). Cette translocation est un effet génotoxique probablement dû à l'exposition de la moelle à un produit cancérigène (les pesticides et solvants semblent fortement en cause). Mais ce n'est peut-être pas la seule cause possible, et cette seule translocation ne suffit pas à induire le cancer. Il faut un facteur d'inhibition immunogénique, qui pourrait également être environnemental et/ou un cofacteur génétique, pour permettre la prolifération incontrôlée des cellules anormales (précurseurs du cancer).
  Portail de la médecine                     </t>
